--- a/measureNAs.xlsx
+++ b/measureNAs.xlsx
@@ -394,7 +394,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.2578</v>
+        <v>0.2579</v>
       </c>
       <c r="C3">
         <v>520</v>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.117</v>
+        <v>0.1171</v>
       </c>
       <c r="C17">
         <v>236</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.1393</v>
+        <v>0.1394</v>
       </c>
       <c r="C18">
         <v>281</v>
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.1403</v>
+        <v>0.1399</v>
       </c>
       <c r="C21">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.0654</v>
+        <v>0.0655</v>
       </c>
       <c r="C25">
         <v>132</v>
